--- a/biology/Botanique/Katahdin/Katahdin.xlsx
+++ b/biology/Botanique/Katahdin/Katahdin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Katahdin est une variété de pomme de terre à chair et à peau blanche relativement ancienne (1932), originaire des États-Unis. Le mot « Katahdin », amérindien, signifiant « mont vénérable », dérive de celui du Mont Katahdin, point culminant de l'État du Maine[1].
-Cette variété, sélectionnée par le Département de l'Agriculture des États-Unis (USDA) dans la ferme d'Aroostook à Presque Isle, (Maine), a été enregistrée officiellement en 1932 aux États-Unis et au Canada. Elle résulte du croisement de deux hybrides sans nom, 'USDA 40568 et 'USDA 24642', produits également par l'USDA. Ces géniteurs ont été choisis pour la résistance à la mosaïque légère (due au virus A), à une époque où les viroses de la pomme de terre commençaient à susciter de l'inquiétude, et le premier (no  40568) plus particulièrement pour la qualité de ses tubercules[1].
-Elle compte dans son pedigree des variétés historiques, dont 'Early Rose' (États-Unis, 1867) et 'Daber' (Allemagne, 1860)[2].
+La Katahdin est une variété de pomme de terre à chair et à peau blanche relativement ancienne (1932), originaire des États-Unis. Le mot « Katahdin », amérindien, signifiant « mont vénérable », dérive de celui du Mont Katahdin, point culminant de l'État du Maine.
+Cette variété, sélectionnée par le Département de l'Agriculture des États-Unis (USDA) dans la ferme d'Aroostook à Presque Isle, (Maine), a été enregistrée officiellement en 1932 aux États-Unis et au Canada. Elle résulte du croisement de deux hybrides sans nom, 'USDA 40568 et 'USDA 24642', produits également par l'USDA. Ces géniteurs ont été choisis pour la résistance à la mosaïque légère (due au virus A), à une époque où les viroses de la pomme de terre commençaient à susciter de l'inquiétude, et le premier (no  40568) plus particulièrement pour la qualité de ses tubercules.
+Elle compte dans son pedigree des variétés historiques, dont 'Early Rose' (États-Unis, 1867) et 'Daber' (Allemagne, 1860).
 La plante est vulnérable vis-à-vis de la gale commune, de la galle verruqueuse, du virus de l'enroulement et du mildiou, ainsi qu'à la pourriture sèche fusarienne, et modérément résistante aux virus S, X et Y, ainsi qu'à la jambe noire et à la verticilliose.
 Elle est résistante au virus A.
 Les tubercules, de forme ronde à oblongue, ont une chair blanche, la peau claire, fine et lisse et des yeux très superficiels de couleur rose.
 C'est une variété qui se tient bien à la cuisson tant au four que bouillie, mais convenant moyennement à la préparation de frites et chips.
-Elle a été utilisée comme géniteur pour la production de nombreux hybrides intermédiaires ou de variétés commerciales dans divers pays, principalement aux États-Unis et au Canada, mais aussi dans le reste du monde, dans des pays aussi variés que l'Union soviétique, l'Allemagne, l'Espagne, la Pologne, la Roumanie, le Royaume-Uni, les Pays-Bas, l'Afrique du Sud, l'Argentine, le Mexique et le Pérou, l'Australie et la Nouvelle-Zélande, le Japon et la Corée ainsi que l'Inde (variétés 'Kufri Kisan', 'Kufri Kumar', 'Kufri Kundan' et 'Kufri Neela')[3].
+Elle a été utilisée comme géniteur pour la production de nombreux hybrides intermédiaires ou de variétés commerciales dans divers pays, principalement aux États-Unis et au Canada, mais aussi dans le reste du monde, dans des pays aussi variés que l'Union soviétique, l'Allemagne, l'Espagne, la Pologne, la Roumanie, le Royaume-Uni, les Pays-Bas, l'Afrique du Sud, l'Argentine, le Mexique et le Pérou, l'Australie et la Nouvelle-Zélande, le Japon et la Corée ainsi que l'Inde (variétés 'Kufri Kisan', 'Kufri Kumar', 'Kufri Kundan' et 'Kufri Neela').
 </t>
         </is>
       </c>
